--- a/NDLM_Tier4_Template.xlsx
+++ b/NDLM_Tier4_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.wellpoint.com/personal/al93633_ad_wellpoint_com/Documents/Documents/Python Projects/vEdge_To_cEdge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcsol\Documents\Python\ENARSI\vEdge_To_cEdge_Tier_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{DE07E7D9-C9B3-4C4F-9A43-C4E8CB812D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42BD26DF-A633-49DB-85BF-B29E06144075}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3711C57-ED9F-4CEB-8164-79B81E936678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2099B645-DA47-4F1A-966C-491014E9BF7B}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{ABEDD921-3B07-45C7-A1F1-0287CD57098D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,176 +36,149 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
-  <si>
-    <t>SDWAN Tier 2 Site</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+  <si>
+    <t>SDWAN Tier 4 Site</t>
+  </si>
+  <si>
+    <t>Elements</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
+    <t>Action (New Site / Migration)</t>
+  </si>
+  <si>
+    <t>(PC/VNA/Spectrum)</t>
+  </si>
+  <si>
+    <t>Anthem Site ID</t>
+  </si>
+  <si>
+    <t>Street Address</t>
+  </si>
+  <si>
+    <t>(PC/Spectrum)</t>
+  </si>
+  <si>
+    <t>City, State, Zip</t>
+  </si>
+  <si>
+    <t>SDWAN Tier</t>
+  </si>
+  <si>
+    <t>(PC/VNA)</t>
+  </si>
+  <si>
+    <t>Topology / Patching (Spectrum Topology)</t>
+  </si>
+  <si>
+    <t>Topology / Patching</t>
+  </si>
+  <si>
+    <t>Decommission - Hostname | IP Address</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Non-Anthem - MPLS (Spectrum/PC/NFA)</t>
+  </si>
+  <si>
+    <t>C8300</t>
+  </si>
+  <si>
     <t>Migration</t>
   </si>
   <si>
-    <t>(PC/VNA/Spectrum)</t>
-  </si>
-  <si>
-    <t>Anthem Site ID</t>
-  </si>
-  <si>
-    <t>Street Address</t>
-  </si>
-  <si>
-    <t>(PC/Spectrum)</t>
-  </si>
-  <si>
-    <t>City, State, Zip</t>
-  </si>
-  <si>
-    <t>(PC/VNA)</t>
-  </si>
-  <si>
-    <t>Topology / Patching (Spectrum Topology)</t>
-  </si>
-  <si>
-    <t>IF USED - Topology / Patching (Spectrum Topology)</t>
-  </si>
-  <si>
-    <t>C8300-1N1S-4T2X</t>
-  </si>
-  <si>
-    <t>vManage Site ID</t>
-  </si>
-  <si>
-    <t>cEdge sdw-03 - LAN-2 Interface (If Used)</t>
-  </si>
-  <si>
-    <t>IF USED - cEdge sdw-03 (cFlowd Enabled)(PC/NFA)</t>
-  </si>
-  <si>
-    <t>cEdge sdw-03 - LAN-2 Interface Connects To (If Used)</t>
-  </si>
-  <si>
-    <t>cEdge sdw-04 - LAN-2 Interface (If Used)</t>
-  </si>
-  <si>
-    <t>IF USED - cEdge sdw-04 (cFlowd Enabled)(PC/NFA)</t>
-  </si>
-  <si>
-    <t>cEdge sdw-04 - LAN-2 Interface Connects To (If Used)</t>
-  </si>
-  <si>
-    <t>cEdge sdw-03 TLOC -to- cEdge sdw-04 TLOC</t>
-  </si>
-  <si>
-    <t>Not Used</t>
-  </si>
-  <si>
-    <t>Elements </t>
-  </si>
-  <si>
-    <t>Action (New Site / Migration) </t>
-  </si>
-  <si>
-    <t>(PC/BNA/Spectrum)</t>
-  </si>
-  <si>
     <t>site-code</t>
   </si>
   <si>
     <t>snmp-location</t>
   </si>
   <si>
-    <t>SDWAN Tier </t>
-  </si>
-  <si>
-    <t>2 </t>
+    <t>city, state</t>
   </si>
   <si>
     <t>site-no</t>
   </si>
   <si>
-    <t>cEdge #1 - Hostname | IP Address </t>
-  </si>
-  <si>
-    <t>cEdge #1 - Model </t>
-  </si>
-  <si>
-    <t>cEdge #2 - Hostname | IP Address </t>
-  </si>
-  <si>
-    <t>cEdge #2 - Model </t>
-  </si>
-  <si>
-    <t>cedge sdw-04 (cFlowd Enabled)(PC/NFA)</t>
-  </si>
-  <si>
-    <t>cEdge SDW-03 - LAN-1 Interface </t>
-  </si>
-  <si>
-    <t>cedge sdw-03 (cFlowd Enabled)(PC/NFA)</t>
-  </si>
-  <si>
-    <t>cEdge SDW-04 - LAN-1 Interface </t>
-  </si>
-  <si>
-    <t>city, state</t>
-  </si>
-  <si>
-    <t>cedge1-host | cedge1-loop </t>
-  </si>
-  <si>
-    <t>cedge2-host | cedge2-loop </t>
-  </si>
-  <si>
-    <t>Primary MPLS (Lumen) Switch/Router/Interface</t>
-  </si>
-  <si>
-    <t>sw-host - sw-cedge1-mpls-port</t>
-  </si>
-  <si>
-    <t>cedge2-host - cedge2-tloc3-port</t>
-  </si>
-  <si>
-    <t>cEdge SDW-03 – LAN-1 Interface Connects to</t>
-  </si>
-  <si>
-    <t>sw-host sw-cedge1-mpls-port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cEdge SDW-04 – LAN-1 Interface Connects to </t>
-  </si>
-  <si>
-    <t>sw-host sw-cedge2-mpls-port</t>
-  </si>
-  <si>
-    <t>Speed In/Out (bps): mpls-speedK / mpls-speedK</t>
-  </si>
-  <si>
-    <t>Primary Broadband (bb1-carrier) Switch/Router/Interface</t>
+    <t>cEdge #1 - Hostname | IP Address</t>
+  </si>
+  <si>
+    <t>cEdge #1 - Model</t>
+  </si>
+  <si>
+    <t>cEdge #2 - Hostname | IP Address</t>
+  </si>
+  <si>
+    <t>cEdge #2 - Model</t>
+  </si>
+  <si>
+    <t>cEdge SDW-01 - LAN-1 Interface</t>
+  </si>
+  <si>
+    <t>cEdge sdw-01 (cFlowd Enabled)(PC/NFA)</t>
+  </si>
+  <si>
+    <t>cEdge SDW-02 - LAN-1 Interface</t>
+  </si>
+  <si>
+    <t>cEdge sdw-02 (cFlowd Enabled)(PC/NFA)</t>
+  </si>
+  <si>
+    <t>cEdge SDW-01 - LAN-1 Interface Connects To</t>
+  </si>
+  <si>
+    <t>cEdge SDW-02 - LAN-1 Interface Connects To</t>
+  </si>
+  <si>
+    <t>cEdge SDW-01 TLOC -to- cEdge SDW-02 TLOC</t>
+  </si>
+  <si>
+    <t>Site ID</t>
+  </si>
+  <si>
+    <t>cedge1-host | cedge1-loop</t>
+  </si>
+  <si>
+    <t>cedge2-host | cedge2-loop</t>
+  </si>
+  <si>
+    <t>Primary Broadband (bb1-carrier)  Switch/Router/Interface</t>
+  </si>
+  <si>
+    <t>cedge2-host Gi0/0/0</t>
+  </si>
+  <si>
+    <t>cedge1-host Gi0/0/0</t>
+  </si>
+  <si>
+    <t>cedge1-host  cedge1-tloc3-port</t>
+  </si>
+  <si>
+    <t>Gi0/0/3 -to- Gi0/0/3</t>
+  </si>
+  <si>
+    <t>cedge1-host  sw-cedge1-port</t>
+  </si>
+  <si>
+    <t>cedge2-host  sw-cedge2-port</t>
   </si>
   <si>
     <t>Speed In/Out (bps):  bb1-up-speedK / bb1-down-speedK</t>
-  </si>
-  <si>
-    <t>cedge1-host gi0/0/0</t>
-  </si>
-  <si>
-    <t>cedge2-host gi0/0/0</t>
-  </si>
-  <si>
-    <t>Gi0/0/3 to Gi0/0/3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -211,18 +186,33 @@
       <b/>
       <u/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,35 +222,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7575"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFF99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC66"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -283,26 +261,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -312,17 +270,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,16 +291,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -359,14 +317,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -374,39 +328,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -458,7 +412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -510,7 +464,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -569,6 +523,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -577,13 +538,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -648,298 +602,249 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688187AE-9A59-40E0-A7EA-BB629720F547}">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A07D14B-9923-4966-970E-E6EA10A11FD1}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="35.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="54" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="C14" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+    </row>
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -947,6 +852,65 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7520CBE6EF609429891F72CE4CF80D8" ma:contentTypeVersion="40" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20512b26ab918a4ff0cc63f6d8baf999">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="177d56f3-2775-4638-be99-38f892282111" xmlns:ns3="275c014b-06ee-4cac-b414-b71bb96e596b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf267a5599540a42359ad4771decf15a" ns2:_="" ns3:_="">
     <xsd:import namespace="177d56f3-2775-4638-be99-38f892282111"/>
@@ -1192,80 +1156,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocIdPersistId xmlns="177d56f3-2775-4638-be99-38f892282111" xsi:nil="true"/>
-    <_dlc_DocId xmlns="177d56f3-2775-4638-be99-38f892282111">CMTYVJAADK5M-1477745756-15516</_dlc_DocId>
+    <_dlc_DocId xmlns="177d56f3-2775-4638-be99-38f892282111">CMTYVJAADK5M-1477745756-15517</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="177d56f3-2775-4638-be99-38f892282111">
-      <Url>https://collaborate.wellpoint.com/sites/Enterprise-Netw/_layouts/15/DocIdRedir.aspx?ID=CMTYVJAADK5M-1477745756-15516</Url>
-      <Description>CMTYVJAADK5M-1477745756-15516</Description>
+      <Url>https://collaborate.wellpoint.com/sites/Enterprise-Netw/_layouts/15/DocIdRedir.aspx?ID=CMTYVJAADK5M-1477745756-15517</Url>
+      <Description>CMTYVJAADK5M-1477745756-15517</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E383411B-CD63-4A54-8EC4-84C55A7B6034}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BC3C553-A6D4-4904-B28F-A19EC9922D87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E735FE0-021F-4C1B-9878-4F3FBACA86B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD08A04F-7A55-4C42-9C9B-B071513DEA97}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1283,24 +1204,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8BCB3-18B4-4E1C-9479-6EAE91327BFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30EFF59D-AD48-4E4F-9B35-50AE57571095}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6B3B853-297D-40DB-9E19-0022FE007C36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED9A675-4593-4B22-9905-D844825F6648}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>

--- a/NDLM_Tier4_Template.xlsx
+++ b/NDLM_Tier4_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcsol\Documents\Python\ENARSI\vEdge_To_cEdge_Tier_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.wellpoint.com/personal/al93633_ad_wellpoint_com/Documents/Documents/Python Projects/vEdge_To_cEdge_Tier_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3711C57-ED9F-4CEB-8164-79B81E936678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E3711C57-ED9F-4CEB-8164-79B81E936678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4DD36D4-C3BB-46B8-B80D-3BE22233EFDD}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{ABEDD921-3B07-45C7-A1F1-0287CD57098D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABEDD921-3B07-45C7-A1F1-0287CD57098D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,14 +620,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="54" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -649,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -660,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -671,7 +671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -693,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -704,7 +704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -715,7 +715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -726,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -748,7 +748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -759,7 +759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -770,7 +770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -781,7 +781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -792,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -803,7 +803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -814,12 +814,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -830,7 +830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -841,7 +841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -852,65 +852,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7520CBE6EF609429891F72CE4CF80D8" ma:contentTypeVersion="40" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20512b26ab918a4ff0cc63f6d8baf999">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="177d56f3-2775-4638-be99-38f892282111" xmlns:ns3="275c014b-06ee-4cac-b414-b71bb96e596b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf267a5599540a42359ad4771decf15a" ns2:_="" ns3:_="">
     <xsd:import namespace="177d56f3-2775-4638-be99-38f892282111"/>
@@ -1156,6 +1097,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1170,22 +1170,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BC3C553-A6D4-4904-B28F-A19EC9922D87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E735FE0-021F-4C1B-9878-4F3FBACA86B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD08A04F-7A55-4C42-9C9B-B071513DEA97}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1204,6 +1188,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E735FE0-021F-4C1B-9878-4F3FBACA86B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BC3C553-A6D4-4904-B28F-A19EC9922D87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED9A675-4593-4B22-9905-D844825F6648}">
   <ds:schemaRefs>
